--- a/data/headers.xlsx
+++ b/data/headers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="headers" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23433" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23434" uniqueCount="459">
   <si>
     <t xml:space="preserve">Data Type</t>
   </si>
@@ -755,6 +755,12 @@
     <t xml:space="preserve">SERVICELINE</t>
   </si>
   <si>
+    <t xml:space="preserve">Initial MonetDB Data Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altered MonetDB Data Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">All Years</t>
   </si>
   <si>
@@ -1421,6 +1427,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1521,11 +1528,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1608,71 +1615,71 @@
   </sheetPr>
   <dimension ref="1:18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.62755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.0459183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.3316326530612"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="9.62755102040816"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="132" min="20" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="133" min="133" style="0" width="14.2091836734694"/>
-    <col collapsed="false" hidden="false" max="137" min="134" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="139" min="138" style="0" width="9.62755102040816"/>
-    <col collapsed="false" hidden="false" max="142" min="140" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="143" min="143" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="144" min="144" style="0" width="13.1020408163265"/>
-    <col collapsed="false" hidden="false" max="145" min="145" style="0" width="14.2091836734694"/>
-    <col collapsed="false" hidden="false" max="146" min="146" style="0" width="9.62755102040816"/>
-    <col collapsed="false" hidden="false" max="177" min="147" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="178" min="178" style="0" width="9.62755102040816"/>
-    <col collapsed="false" hidden="false" max="180" min="179" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="181" min="181" style="0" width="11.7091836734694"/>
-    <col collapsed="false" hidden="false" max="182" min="182" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="183" min="183" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="184" min="184" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="185" min="185" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="186" min="186" style="0" width="9.48469387755102"/>
-    <col collapsed="false" hidden="false" max="187" min="187" style="0" width="8.65816326530612"/>
-    <col collapsed="false" hidden="false" max="188" min="188" style="0" width="16.2959183673469"/>
-    <col collapsed="false" hidden="false" max="189" min="189" style="0" width="15.6071428571429"/>
-    <col collapsed="false" hidden="false" max="190" min="190" style="0" width="16.2959183673469"/>
-    <col collapsed="false" hidden="false" max="191" min="191" style="0" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="192" min="192" style="0" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="193" min="193" style="0" width="14.7704081632653"/>
-    <col collapsed="false" hidden="false" max="194" min="194" style="0" width="16.7142857142857"/>
-    <col collapsed="false" hidden="false" max="195" min="195" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="196" min="196" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="197" min="197" style="0" width="11.1581632653061"/>
-    <col collapsed="false" hidden="false" max="198" min="198" style="0" width="10.3214285714286"/>
-    <col collapsed="false" hidden="false" max="199" min="199" style="0" width="11.1581632653061"/>
-    <col collapsed="false" hidden="false" max="200" min="200" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="201" min="201" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="202" min="202" style="0" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="203" min="203" style="0" width="18.3775510204082"/>
-    <col collapsed="false" hidden="false" max="204" min="204" style="0" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="205" min="205" style="0" width="19.0765306122449"/>
-    <col collapsed="false" hidden="false" max="206" min="206" style="0" width="19.7704081632653"/>
-    <col collapsed="false" hidden="false" max="207" min="207" style="0" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="208" min="208" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="209" min="209" style="0" width="12.5459183673469"/>
-    <col collapsed="false" hidden="false" max="210" min="210" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="212" min="211" style="0" width="12.265306122449"/>
-    <col collapsed="false" hidden="false" max="213" min="213" style="0" width="12.6785714285714"/>
-    <col collapsed="false" hidden="false" max="215" min="214" style="0" width="9.20408163265306"/>
-    <col collapsed="false" hidden="false" max="216" min="216" style="0" width="9.76530612244898"/>
-    <col collapsed="false" hidden="false" max="217" min="217" style="0" width="13.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="218" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="132" min="20" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="133" min="133" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="137" min="134" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="139" min="138" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="142" min="140" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="143" min="143" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="144" min="144" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="145" min="145" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="146" min="146" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="177" min="147" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="178" min="178" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="180" min="179" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="181" min="181" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="182" min="182" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="183" min="183" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="184" min="184" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="185" min="185" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="186" min="186" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="187" min="187" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="188" min="188" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="189" min="189" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="190" min="190" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="191" min="191" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="192" min="192" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="193" min="193" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="194" min="194" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="195" min="195" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="196" min="196" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="197" min="197" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="198" min="198" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="199" min="199" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="200" min="200" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="201" min="201" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="202" min="202" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="203" min="203" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="204" min="204" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="205" min="205" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="206" min="206" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="207" min="207" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="208" min="208" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="209" min="209" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="210" min="210" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="212" min="211" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="213" min="213" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="215" min="214" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="216" min="216" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="217" min="217" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="218" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11481,96 +11488,96 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="4"/>
-      <c r="BL18" s="4"/>
-      <c r="BM18" s="4"/>
-      <c r="BN18" s="4"/>
-      <c r="BO18" s="4"/>
-      <c r="BP18" s="4"/>
-      <c r="BQ18" s="4"/>
-      <c r="BR18" s="4"/>
-      <c r="BS18" s="4"/>
-      <c r="BT18" s="4"/>
-      <c r="BU18" s="4"/>
-      <c r="BV18" s="4"/>
-      <c r="BW18" s="4"/>
-      <c r="BX18" s="4"/>
-      <c r="BY18" s="4"/>
-      <c r="BZ18" s="4"/>
-      <c r="CA18" s="4"/>
-      <c r="CB18" s="4"/>
-      <c r="CC18" s="4"/>
-      <c r="CD18" s="4"/>
-      <c r="CE18" s="4"/>
-      <c r="CF18" s="4"/>
-      <c r="CG18" s="4"/>
-      <c r="CH18" s="4"/>
-      <c r="CI18" s="4"/>
-      <c r="CJ18" s="4"/>
-      <c r="CK18" s="4"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
+      <c r="X18" s="0"/>
+      <c r="Y18" s="0"/>
+      <c r="Z18" s="0"/>
+      <c r="AA18" s="0"/>
+      <c r="AB18" s="0"/>
+      <c r="AC18" s="0"/>
+      <c r="AD18" s="0"/>
+      <c r="AE18" s="0"/>
+      <c r="AF18" s="0"/>
+      <c r="AG18" s="0"/>
+      <c r="AH18" s="0"/>
+      <c r="AI18" s="0"/>
+      <c r="AJ18" s="0"/>
+      <c r="AK18" s="0"/>
+      <c r="AL18" s="0"/>
+      <c r="AM18" s="0"/>
+      <c r="AN18" s="0"/>
+      <c r="AO18" s="0"/>
+      <c r="AP18" s="0"/>
+      <c r="AQ18" s="0"/>
+      <c r="AR18" s="0"/>
+      <c r="AS18" s="0"/>
+      <c r="AT18" s="0"/>
+      <c r="AU18" s="0"/>
+      <c r="AV18" s="0"/>
+      <c r="AW18" s="0"/>
+      <c r="AX18" s="0"/>
+      <c r="AY18" s="0"/>
+      <c r="AZ18" s="0"/>
+      <c r="BA18" s="0"/>
+      <c r="BB18" s="0"/>
+      <c r="BC18" s="0"/>
+      <c r="BD18" s="0"/>
+      <c r="BE18" s="0"/>
+      <c r="BF18" s="0"/>
+      <c r="BG18" s="0"/>
+      <c r="BH18" s="0"/>
+      <c r="BI18" s="0"/>
+      <c r="BJ18" s="0"/>
+      <c r="BK18" s="0"/>
+      <c r="BL18" s="0"/>
+      <c r="BM18" s="0"/>
+      <c r="BN18" s="0"/>
+      <c r="BO18" s="0"/>
+      <c r="BP18" s="0"/>
+      <c r="BQ18" s="0"/>
+      <c r="BR18" s="0"/>
+      <c r="BS18" s="0"/>
+      <c r="BT18" s="0"/>
+      <c r="BU18" s="0"/>
+      <c r="BV18" s="0"/>
+      <c r="BW18" s="0"/>
+      <c r="BX18" s="0"/>
+      <c r="BY18" s="0"/>
+      <c r="BZ18" s="0"/>
+      <c r="CA18" s="0"/>
+      <c r="CB18" s="0"/>
+      <c r="CC18" s="0"/>
+      <c r="CD18" s="0"/>
+      <c r="CE18" s="0"/>
+      <c r="CF18" s="0"/>
+      <c r="CG18" s="0"/>
+      <c r="CH18" s="0"/>
+      <c r="CI18" s="0"/>
+      <c r="CJ18" s="0"/>
+      <c r="CK18" s="0"/>
       <c r="CL18" s="0"/>
       <c r="CM18" s="0"/>
       <c r="CN18" s="0"/>
@@ -11588,34 +11595,34 @@
       <c r="CZ18" s="0"/>
       <c r="DA18" s="0"/>
       <c r="DB18" s="0"/>
-      <c r="DC18" s="4"/>
-      <c r="DD18" s="4"/>
-      <c r="DE18" s="4"/>
-      <c r="DF18" s="4"/>
-      <c r="DG18" s="4"/>
-      <c r="DH18" s="4"/>
-      <c r="DI18" s="4"/>
-      <c r="DJ18" s="4"/>
-      <c r="DK18" s="4"/>
-      <c r="DL18" s="4"/>
-      <c r="DM18" s="4"/>
-      <c r="DN18" s="4"/>
-      <c r="DO18" s="4"/>
-      <c r="DP18" s="4"/>
-      <c r="DQ18" s="4"/>
-      <c r="DR18" s="4"/>
-      <c r="DS18" s="4"/>
-      <c r="DT18" s="4"/>
-      <c r="DU18" s="4"/>
-      <c r="DV18" s="4"/>
-      <c r="DW18" s="4"/>
-      <c r="DX18" s="4"/>
-      <c r="DY18" s="4"/>
-      <c r="DZ18" s="4"/>
-      <c r="EA18" s="4"/>
-      <c r="EB18" s="4"/>
-      <c r="EC18" s="4"/>
-      <c r="ED18" s="4"/>
+      <c r="DC18" s="0"/>
+      <c r="DD18" s="0"/>
+      <c r="DE18" s="0"/>
+      <c r="DF18" s="0"/>
+      <c r="DG18" s="0"/>
+      <c r="DH18" s="0"/>
+      <c r="DI18" s="0"/>
+      <c r="DJ18" s="0"/>
+      <c r="DK18" s="0"/>
+      <c r="DL18" s="0"/>
+      <c r="DM18" s="0"/>
+      <c r="DN18" s="0"/>
+      <c r="DO18" s="0"/>
+      <c r="DP18" s="0"/>
+      <c r="DQ18" s="0"/>
+      <c r="DR18" s="0"/>
+      <c r="DS18" s="0"/>
+      <c r="DT18" s="0"/>
+      <c r="DU18" s="0"/>
+      <c r="DV18" s="0"/>
+      <c r="DW18" s="0"/>
+      <c r="DX18" s="0"/>
+      <c r="DY18" s="0"/>
+      <c r="DZ18" s="0"/>
+      <c r="EA18" s="0"/>
+      <c r="EB18" s="0"/>
+      <c r="EC18" s="0"/>
+      <c r="ED18" s="0"/>
       <c r="EE18" s="0"/>
       <c r="EF18" s="0"/>
       <c r="EG18" s="0"/>
@@ -11650,7 +11657,7 @@
       <c r="FJ18" s="0"/>
       <c r="FK18" s="0"/>
       <c r="FL18" s="0"/>
-      <c r="FM18" s="4"/>
+      <c r="FM18" s="0"/>
       <c r="FN18" s="0"/>
       <c r="FO18" s="0"/>
       <c r="FP18" s="0"/>
@@ -11690,21 +11697,21 @@
       <c r="GX18" s="0"/>
       <c r="GY18" s="0"/>
       <c r="GZ18" s="0"/>
-      <c r="HA18" s="4"/>
-      <c r="HB18" s="4"/>
-      <c r="HC18" s="4"/>
-      <c r="HD18" s="4"/>
-      <c r="HE18" s="4"/>
-      <c r="HF18" s="4"/>
-      <c r="HG18" s="4"/>
-      <c r="HH18" s="4"/>
-      <c r="HI18" s="4"/>
-      <c r="HJ18" s="4"/>
-      <c r="HK18" s="4"/>
-      <c r="HL18" s="4"/>
-      <c r="HM18" s="4"/>
-      <c r="HN18" s="4"/>
-      <c r="HO18" s="4"/>
+      <c r="HA18" s="0"/>
+      <c r="HB18" s="0"/>
+      <c r="HC18" s="0"/>
+      <c r="HD18" s="0"/>
+      <c r="HE18" s="0"/>
+      <c r="HF18" s="0"/>
+      <c r="HG18" s="0"/>
+      <c r="HH18" s="0"/>
+      <c r="HI18" s="0"/>
+      <c r="HJ18" s="0"/>
+      <c r="HK18" s="0"/>
+      <c r="HL18" s="0"/>
+      <c r="HM18" s="0"/>
+      <c r="HN18" s="0"/>
+      <c r="HO18" s="0"/>
       <c r="ALU18" s="0"/>
       <c r="ALV18" s="0"/>
       <c r="ALW18" s="0"/>
@@ -11746,9 +11753,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11765,7 +11772,7 @@
         <v>2007</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14654,7 +14661,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -14675,10 +14682,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14695,7 +14702,7 @@
         <v>2008</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17590,7 +17597,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -17611,9 +17618,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17630,7 +17637,7 @@
         <v>2009</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20585,7 +20592,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -20606,9 +20613,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20625,7 +20632,7 @@
         <v>2010</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23583,7 +23590,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -23604,11 +23611,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23625,7 +23632,7 @@
         <v>2011</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26583,7 +26590,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -26604,9 +26611,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26623,7 +26630,7 @@
         <v>2012</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29524,7 +29531,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -29545,9 +29552,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29564,7 +29571,7 @@
         <v>2013</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32465,7 +32472,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -32486,12 +32493,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32508,7 +32515,7 @@
         <v>2014</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35472,7 +35479,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -35487,16 +35494,17 @@
   </sheetPr>
   <dimension ref="A1:AH217"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA202" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH209" activeCellId="0" sqref="AH209"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0357142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35504,10 +35512,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>239</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>240</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>19</v>
@@ -35595,14 +35606,14 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>23</v>
@@ -35677,7 +35688,7 @@
         <v>20</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AD2" s="0" t="s">
         <v>23</v>
@@ -35703,7 +35714,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>24</v>
@@ -35778,7 +35789,7 @@
         <v>21</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AD3" s="0" t="s">
         <v>24</v>
@@ -35797,14 +35808,14 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>25</v>
@@ -35879,7 +35890,7 @@
         <v>20</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AD4" s="0" t="s">
         <v>25</v>
@@ -35898,14 +35909,14 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>218</v>
@@ -35918,14 +35929,14 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>26</v>
@@ -36000,7 +36011,7 @@
         <v>20</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AD6" s="0" t="s">
         <v>26</v>
@@ -36019,14 +36030,14 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>27</v>
@@ -36101,7 +36112,7 @@
         <v>20</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AD7" s="0" t="s">
         <v>27</v>
@@ -36120,14 +36131,14 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>28</v>
@@ -36202,7 +36213,7 @@
         <v>20</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD8" s="0" t="s">
         <v>28</v>
@@ -36228,7 +36239,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>29</v>
@@ -36301,14 +36312,14 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>30</v>
@@ -36388,7 +36399,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>182</v>
@@ -36408,7 +36419,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>31</v>
@@ -36483,7 +36494,7 @@
         <v>20</v>
       </c>
       <c r="AC12" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AD12" s="0" t="s">
         <v>31</v>
@@ -36502,14 +36513,14 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>32</v>
@@ -36584,7 +36595,7 @@
         <v>20</v>
       </c>
       <c r="AC13" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AD13" s="0" t="s">
         <v>32</v>
@@ -36610,7 +36621,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>33</v>
@@ -36685,7 +36696,7 @@
         <v>21</v>
       </c>
       <c r="AC14" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AD14" s="0" t="s">
         <v>33</v>
@@ -36711,7 +36722,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>34</v>
@@ -36786,7 +36797,7 @@
         <v>21</v>
       </c>
       <c r="AC15" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AD15" s="0" t="s">
         <v>34</v>
@@ -36805,14 +36816,14 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>219</v>
@@ -36828,14 +36839,14 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>192</v>
@@ -36871,7 +36882,7 @@
         <v>20</v>
       </c>
       <c r="AC17" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AD17" s="0" t="s">
         <v>192</v>
@@ -36890,14 +36901,14 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>220</v>
@@ -36913,14 +36924,14 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>221</v>
@@ -36943,7 +36954,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>35</v>
@@ -37018,7 +37029,7 @@
         <v>20</v>
       </c>
       <c r="AC20" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AD20" s="0" t="s">
         <v>35</v>
@@ -37044,7 +37055,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>36</v>
@@ -37119,7 +37130,7 @@
         <v>20</v>
       </c>
       <c r="AC21" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AD21" s="0" t="s">
         <v>36</v>
@@ -37145,7 +37156,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>37</v>
@@ -37220,7 +37231,7 @@
         <v>20</v>
       </c>
       <c r="AC22" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AD22" s="0" t="s">
         <v>37</v>
@@ -37246,7 +37257,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>38</v>
@@ -37321,7 +37332,7 @@
         <v>20</v>
       </c>
       <c r="AC23" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AD23" s="0" t="s">
         <v>38</v>
@@ -37347,7 +37358,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>39</v>
@@ -37422,7 +37433,7 @@
         <v>20</v>
       </c>
       <c r="AC24" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AD24" s="0" t="s">
         <v>39</v>
@@ -37448,7 +37459,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>40</v>
@@ -37523,7 +37534,7 @@
         <v>20</v>
       </c>
       <c r="AC25" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AD25" s="0" t="s">
         <v>40</v>
@@ -37549,7 +37560,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>41</v>
@@ -37624,7 +37635,7 @@
         <v>20</v>
       </c>
       <c r="AC26" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AD26" s="0" t="s">
         <v>41</v>
@@ -37650,7 +37661,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>42</v>
@@ -37725,7 +37736,7 @@
         <v>20</v>
       </c>
       <c r="AC27" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AD27" s="0" t="s">
         <v>42</v>
@@ -37751,7 +37762,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>43</v>
@@ -37826,7 +37837,7 @@
         <v>20</v>
       </c>
       <c r="AC28" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AD28" s="0" t="s">
         <v>43</v>
@@ -37852,7 +37863,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>44</v>
@@ -37927,7 +37938,7 @@
         <v>20</v>
       </c>
       <c r="AC29" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AD29" s="0" t="s">
         <v>44</v>
@@ -37953,7 +37964,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>45</v>
@@ -38028,7 +38039,7 @@
         <v>20</v>
       </c>
       <c r="AC30" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AD30" s="0" t="s">
         <v>45</v>
@@ -38054,7 +38065,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>46</v>
@@ -38129,7 +38140,7 @@
         <v>20</v>
       </c>
       <c r="AC31" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AD31" s="0" t="s">
         <v>46</v>
@@ -38155,7 +38166,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>47</v>
@@ -38230,7 +38241,7 @@
         <v>20</v>
       </c>
       <c r="AC32" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AD32" s="0" t="s">
         <v>47</v>
@@ -38256,7 +38267,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>48</v>
@@ -38331,7 +38342,7 @@
         <v>20</v>
       </c>
       <c r="AC33" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AD33" s="0" t="s">
         <v>48</v>
@@ -38357,7 +38368,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>49</v>
@@ -38432,7 +38443,7 @@
         <v>20</v>
       </c>
       <c r="AC34" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AD34" s="0" t="s">
         <v>49</v>
@@ -38458,7 +38469,7 @@
         <v>12</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>196</v>
@@ -38485,7 +38496,7 @@
         <v>20</v>
       </c>
       <c r="AC35" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AD35" s="0" t="s">
         <v>196</v>
@@ -38511,7 +38522,7 @@
         <v>12</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>197</v>
@@ -38538,7 +38549,7 @@
         <v>20</v>
       </c>
       <c r="AC36" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AD36" s="0" t="s">
         <v>197</v>
@@ -38564,7 +38575,7 @@
         <v>12</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>198</v>
@@ -38591,7 +38602,7 @@
         <v>20</v>
       </c>
       <c r="AC37" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AD37" s="0" t="s">
         <v>198</v>
@@ -38617,7 +38628,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>199</v>
@@ -38644,7 +38655,7 @@
         <v>20</v>
       </c>
       <c r="AC38" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AD38" s="0" t="s">
         <v>199</v>
@@ -38670,7 +38681,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>200</v>
@@ -38697,7 +38708,7 @@
         <v>20</v>
       </c>
       <c r="AC39" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AD39" s="0" t="s">
         <v>200</v>
@@ -38723,7 +38734,7 @@
         <v>12</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>201</v>
@@ -38750,7 +38761,7 @@
         <v>20</v>
       </c>
       <c r="AC40" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AD40" s="0" t="s">
         <v>201</v>
@@ -38776,7 +38787,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>202</v>
@@ -38803,7 +38814,7 @@
         <v>20</v>
       </c>
       <c r="AC41" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AD41" s="0" t="s">
         <v>202</v>
@@ -38829,7 +38840,7 @@
         <v>12</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>203</v>
@@ -38856,7 +38867,7 @@
         <v>20</v>
       </c>
       <c r="AC42" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AD42" s="0" t="s">
         <v>203</v>
@@ -38882,7 +38893,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>204</v>
@@ -38909,7 +38920,7 @@
         <v>20</v>
       </c>
       <c r="AC43" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AD43" s="0" t="s">
         <v>204</v>
@@ -38935,7 +38946,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>205</v>
@@ -38962,7 +38973,7 @@
         <v>20</v>
       </c>
       <c r="AC44" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AD44" s="0" t="s">
         <v>205</v>
@@ -38988,7 +38999,7 @@
         <v>12</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>222</v>
@@ -39008,7 +39019,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>223</v>
@@ -39028,7 +39039,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>224</v>
@@ -39048,7 +39059,7 @@
         <v>12</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>225</v>
@@ -39068,7 +39079,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>226</v>
@@ -39081,14 +39092,14 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="0" t="s">
+      <c r="A50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>50</v>
@@ -39163,7 +39174,7 @@
         <v>20</v>
       </c>
       <c r="AC50" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AD50" s="0" t="s">
         <v>50</v>
@@ -39182,14 +39193,14 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="0" t="s">
+      <c r="A51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>51</v>
@@ -39264,7 +39275,7 @@
         <v>20</v>
       </c>
       <c r="AC51" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AD51" s="0" t="s">
         <v>51</v>
@@ -39283,14 +39294,14 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="0" t="s">
+      <c r="A52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>52</v>
@@ -39365,7 +39376,7 @@
         <v>20</v>
       </c>
       <c r="AC52" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AD52" s="0" t="s">
         <v>52</v>
@@ -39384,14 +39395,14 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="0" t="s">
+      <c r="A53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>53</v>
@@ -39466,7 +39477,7 @@
         <v>20</v>
       </c>
       <c r="AC53" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AD53" s="0" t="s">
         <v>53</v>
@@ -39485,14 +39496,14 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="0" t="s">
+      <c r="A54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>54</v>
@@ -39567,7 +39578,7 @@
         <v>20</v>
       </c>
       <c r="AC54" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AD54" s="0" t="s">
         <v>54</v>
@@ -39586,14 +39597,14 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="0" t="s">
+      <c r="A55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>55</v>
@@ -39668,7 +39679,7 @@
         <v>20</v>
       </c>
       <c r="AC55" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AD55" s="0" t="s">
         <v>55</v>
@@ -39687,14 +39698,14 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="0" t="s">
+      <c r="A56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>56</v>
@@ -39769,7 +39780,7 @@
         <v>20</v>
       </c>
       <c r="AC56" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AD56" s="0" t="s">
         <v>56</v>
@@ -39788,14 +39799,14 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="0" t="s">
+      <c r="A57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>57</v>
@@ -39870,7 +39881,7 @@
         <v>20</v>
       </c>
       <c r="AC57" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AD57" s="0" t="s">
         <v>57</v>
@@ -39889,14 +39900,14 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="0" t="s">
+      <c r="A58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>58</v>
@@ -39971,7 +39982,7 @@
         <v>20</v>
       </c>
       <c r="AC58" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AD58" s="0" t="s">
         <v>58</v>
@@ -39990,14 +40001,14 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="0" t="s">
+      <c r="A59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>59</v>
@@ -40072,7 +40083,7 @@
         <v>20</v>
       </c>
       <c r="AC59" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AD59" s="0" t="s">
         <v>59</v>
@@ -40091,14 +40102,14 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="0" t="s">
+      <c r="A60" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>60</v>
@@ -40173,7 +40184,7 @@
         <v>20</v>
       </c>
       <c r="AC60" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AD60" s="0" t="s">
         <v>60</v>
@@ -40192,14 +40203,14 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="0" t="s">
+      <c r="A61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>61</v>
@@ -40274,7 +40285,7 @@
         <v>20</v>
       </c>
       <c r="AC61" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AD61" s="0" t="s">
         <v>61</v>
@@ -40293,14 +40304,14 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="0" t="s">
+      <c r="A62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>62</v>
@@ -40375,7 +40386,7 @@
         <v>20</v>
       </c>
       <c r="AC62" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AD62" s="0" t="s">
         <v>62</v>
@@ -40394,14 +40405,14 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="0" t="s">
+      <c r="A63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>63</v>
@@ -40476,7 +40487,7 @@
         <v>20</v>
       </c>
       <c r="AC63" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AD63" s="0" t="s">
         <v>63</v>
@@ -40495,14 +40506,14 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="0" t="s">
+      <c r="A64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>64</v>
@@ -40577,7 +40588,7 @@
         <v>20</v>
       </c>
       <c r="AC64" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AD64" s="0" t="s">
         <v>64</v>
@@ -40596,14 +40607,14 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="0" t="s">
+      <c r="A65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>206</v>
@@ -40630,7 +40641,7 @@
         <v>20</v>
       </c>
       <c r="AC65" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AD65" s="0" t="s">
         <v>206</v>
@@ -40649,14 +40660,14 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="0" t="s">
+      <c r="A66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>207</v>
@@ -40683,7 +40694,7 @@
         <v>20</v>
       </c>
       <c r="AC66" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AD66" s="0" t="s">
         <v>207</v>
@@ -40702,14 +40713,14 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="0" t="s">
+      <c r="A67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>208</v>
@@ -40736,7 +40747,7 @@
         <v>20</v>
       </c>
       <c r="AC67" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AD67" s="0" t="s">
         <v>208</v>
@@ -40755,14 +40766,14 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="0" t="s">
+      <c r="A68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>209</v>
@@ -40789,7 +40800,7 @@
         <v>20</v>
       </c>
       <c r="AC68" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AD68" s="0" t="s">
         <v>209</v>
@@ -40808,14 +40819,14 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="0" t="s">
+      <c r="A69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>210</v>
@@ -40842,7 +40853,7 @@
         <v>20</v>
       </c>
       <c r="AC69" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AD69" s="0" t="s">
         <v>210</v>
@@ -40861,14 +40872,14 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="0" t="s">
+      <c r="A70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>211</v>
@@ -40895,7 +40906,7 @@
         <v>20</v>
       </c>
       <c r="AC70" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AD70" s="0" t="s">
         <v>211</v>
@@ -40914,14 +40925,14 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="0" t="s">
+      <c r="A71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E71" s="0" t="s">
         <v>212</v>
@@ -40948,7 +40959,7 @@
         <v>20</v>
       </c>
       <c r="AC71" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AD71" s="0" t="s">
         <v>212</v>
@@ -40967,14 +40978,14 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="0" t="s">
+      <c r="A72" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>213</v>
@@ -41001,7 +41012,7 @@
         <v>20</v>
       </c>
       <c r="AC72" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AD72" s="0" t="s">
         <v>213</v>
@@ -41020,14 +41031,14 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="0" t="s">
+      <c r="A73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>214</v>
@@ -41054,7 +41065,7 @@
         <v>20</v>
       </c>
       <c r="AC73" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AD73" s="0" t="s">
         <v>214</v>
@@ -41073,14 +41084,14 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="0" t="s">
+      <c r="A74" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>215</v>
@@ -41107,7 +41118,7 @@
         <v>20</v>
       </c>
       <c r="AC74" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AD74" s="0" t="s">
         <v>215</v>
@@ -41126,14 +41137,14 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="0" t="s">
+      <c r="A75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>227</v>
@@ -41146,14 +41157,14 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="0" t="s">
+      <c r="A76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E76" s="0" t="s">
         <v>228</v>
@@ -41166,14 +41177,14 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="0" t="s">
+      <c r="A77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E77" s="0" t="s">
         <v>229</v>
@@ -41186,14 +41197,14 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="0" t="s">
+      <c r="A78" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>230</v>
@@ -41206,14 +41217,14 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="0" t="s">
+      <c r="A79" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>231</v>
@@ -41226,14 +41237,14 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="0" t="s">
+      <c r="A80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>65</v>
@@ -41308,7 +41319,7 @@
         <v>20</v>
       </c>
       <c r="AC80" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AD80" s="0" t="s">
         <v>65</v>
@@ -41327,14 +41338,14 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="0" t="s">
+      <c r="A81" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>66</v>
@@ -41409,7 +41420,7 @@
         <v>20</v>
       </c>
       <c r="AC81" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AD81" s="0" t="s">
         <v>66</v>
@@ -41428,14 +41439,14 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="0" t="s">
+      <c r="A82" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E82" s="0" t="s">
         <v>67</v>
@@ -41510,7 +41521,7 @@
         <v>20</v>
       </c>
       <c r="AC82" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AD82" s="0" t="s">
         <v>67</v>
@@ -41529,14 +41540,14 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="0" t="s">
+      <c r="A83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E83" s="0" t="s">
         <v>68</v>
@@ -41611,7 +41622,7 @@
         <v>20</v>
       </c>
       <c r="AC83" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AD83" s="0" t="s">
         <v>68</v>
@@ -41630,14 +41641,14 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="0" t="s">
+      <c r="A84" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E84" s="0" t="s">
         <v>69</v>
@@ -41712,7 +41723,7 @@
         <v>20</v>
       </c>
       <c r="AC84" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AD84" s="0" t="s">
         <v>69</v>
@@ -41731,14 +41742,14 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="0" t="s">
+      <c r="A85" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>70</v>
@@ -41813,7 +41824,7 @@
         <v>20</v>
       </c>
       <c r="AC85" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AD85" s="0" t="s">
         <v>70</v>
@@ -41832,14 +41843,14 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" s="0" t="s">
+      <c r="A86" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E86" s="0" t="s">
         <v>71</v>
@@ -41914,7 +41925,7 @@
         <v>20</v>
       </c>
       <c r="AC86" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AD86" s="0" t="s">
         <v>71</v>
@@ -41933,14 +41944,14 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="0" t="s">
+      <c r="A87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>72</v>
@@ -42015,7 +42026,7 @@
         <v>20</v>
       </c>
       <c r="AC87" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AD87" s="0" t="s">
         <v>72</v>
@@ -42034,14 +42045,14 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="0" t="s">
+      <c r="A88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>73</v>
@@ -42116,7 +42127,7 @@
         <v>20</v>
       </c>
       <c r="AC88" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AD88" s="0" t="s">
         <v>73</v>
@@ -42135,14 +42146,14 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="0" t="s">
+      <c r="A89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>74</v>
@@ -42217,7 +42228,7 @@
         <v>20</v>
       </c>
       <c r="AC89" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AD89" s="0" t="s">
         <v>74</v>
@@ -42236,14 +42247,14 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="0" t="s">
+      <c r="A90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E90" s="0" t="s">
         <v>75</v>
@@ -42318,7 +42329,7 @@
         <v>20</v>
       </c>
       <c r="AC90" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD90" s="0" t="s">
         <v>75</v>
@@ -42337,14 +42348,14 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="0" t="s">
+      <c r="A91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E91" s="0" t="s">
         <v>76</v>
@@ -42419,7 +42430,7 @@
         <v>20</v>
       </c>
       <c r="AC91" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AD91" s="0" t="s">
         <v>76</v>
@@ -42438,14 +42449,14 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" s="0" t="s">
+      <c r="A92" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E92" s="0" t="s">
         <v>77</v>
@@ -42520,7 +42531,7 @@
         <v>20</v>
       </c>
       <c r="AC92" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AD92" s="0" t="s">
         <v>77</v>
@@ -42539,14 +42550,14 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="0" t="s">
+      <c r="A93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E93" s="0" t="s">
         <v>78</v>
@@ -42621,7 +42632,7 @@
         <v>20</v>
       </c>
       <c r="AC93" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AD93" s="0" t="s">
         <v>78</v>
@@ -42640,14 +42651,14 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="0" t="s">
+      <c r="A94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>79</v>
@@ -42722,7 +42733,7 @@
         <v>20</v>
       </c>
       <c r="AC94" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AD94" s="0" t="s">
         <v>79</v>
@@ -42741,14 +42752,14 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="0" t="s">
+      <c r="A95" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>80</v>
@@ -42823,7 +42834,7 @@
         <v>20</v>
       </c>
       <c r="AC95" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AD95" s="0" t="s">
         <v>80</v>
@@ -42842,14 +42853,14 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B96" s="0" t="s">
+      <c r="A96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>81</v>
@@ -42924,7 +42935,7 @@
         <v>20</v>
       </c>
       <c r="AC96" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD96" s="0" t="s">
         <v>81</v>
@@ -42943,14 +42954,14 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="0" t="s">
+      <c r="A97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>82</v>
@@ -43025,7 +43036,7 @@
         <v>20</v>
       </c>
       <c r="AC97" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AD97" s="0" t="s">
         <v>82</v>
@@ -43044,14 +43055,14 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" s="0" t="s">
+      <c r="A98" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>83</v>
@@ -43126,7 +43137,7 @@
         <v>20</v>
       </c>
       <c r="AC98" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AD98" s="0" t="s">
         <v>83</v>
@@ -43145,14 +43156,14 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="0" t="s">
+      <c r="A99" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>84</v>
@@ -43227,7 +43238,7 @@
         <v>20</v>
       </c>
       <c r="AC99" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AD99" s="0" t="s">
         <v>84</v>
@@ -43246,14 +43257,14 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="0" t="s">
+      <c r="A100" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>85</v>
@@ -43328,7 +43339,7 @@
         <v>20</v>
       </c>
       <c r="AC100" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AD100" s="0" t="s">
         <v>85</v>
@@ -43347,14 +43358,14 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="0" t="s">
+      <c r="A101" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>86</v>
@@ -43429,7 +43440,7 @@
         <v>20</v>
       </c>
       <c r="AC101" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AD101" s="0" t="s">
         <v>86</v>
@@ -43448,14 +43459,14 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="0" t="s">
+      <c r="A102" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E102" s="0" t="s">
         <v>87</v>
@@ -43530,7 +43541,7 @@
         <v>20</v>
       </c>
       <c r="AC102" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AD102" s="0" t="s">
         <v>87</v>
@@ -43549,14 +43560,14 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="0" t="s">
+      <c r="A103" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>88</v>
@@ -43631,7 +43642,7 @@
         <v>20</v>
       </c>
       <c r="AC103" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AD103" s="0" t="s">
         <v>88</v>
@@ -43650,14 +43661,14 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="0" t="s">
+      <c r="A104" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E104" s="0" t="s">
         <v>89</v>
@@ -43732,7 +43743,7 @@
         <v>20</v>
       </c>
       <c r="AC104" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AD104" s="0" t="s">
         <v>89</v>
@@ -43751,14 +43762,14 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="0" t="s">
+      <c r="A105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E105" s="0" t="s">
         <v>90</v>
@@ -43833,7 +43844,7 @@
         <v>20</v>
       </c>
       <c r="AC105" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AD105" s="0" t="s">
         <v>90</v>
@@ -43852,14 +43863,14 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="0" t="s">
+      <c r="A106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E106" s="0" t="s">
         <v>91</v>
@@ -43934,7 +43945,7 @@
         <v>20</v>
       </c>
       <c r="AC106" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AD106" s="0" t="s">
         <v>91</v>
@@ -43953,14 +43964,14 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="0" t="s">
+      <c r="A107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E107" s="0" t="s">
         <v>92</v>
@@ -44035,7 +44046,7 @@
         <v>20</v>
       </c>
       <c r="AC107" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AD107" s="0" t="s">
         <v>92</v>
@@ -44054,14 +44065,14 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="0" t="s">
+      <c r="A108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E108" s="0" t="s">
         <v>93</v>
@@ -44136,7 +44147,7 @@
         <v>20</v>
       </c>
       <c r="AC108" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AD108" s="0" t="s">
         <v>93</v>
@@ -44155,14 +44166,14 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="0" t="s">
+      <c r="A109" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E109" s="0" t="s">
         <v>94</v>
@@ -44237,7 +44248,7 @@
         <v>20</v>
       </c>
       <c r="AC109" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AD109" s="0" t="s">
         <v>94</v>
@@ -44256,14 +44267,14 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="0" t="s">
+      <c r="A110" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>95</v>
@@ -44338,7 +44349,7 @@
         <v>20</v>
       </c>
       <c r="AC110" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AD110" s="0" t="s">
         <v>95</v>
@@ -44357,14 +44368,14 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="0" t="s">
+      <c r="A111" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E111" s="0" t="s">
         <v>96</v>
@@ -44439,7 +44450,7 @@
         <v>20</v>
       </c>
       <c r="AC111" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AD111" s="0" t="s">
         <v>96</v>
@@ -44458,14 +44469,14 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="0" t="s">
+      <c r="A112" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E112" s="0" t="s">
         <v>97</v>
@@ -44540,7 +44551,7 @@
         <v>20</v>
       </c>
       <c r="AC112" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AD112" s="0" t="s">
         <v>97</v>
@@ -44559,14 +44570,14 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" s="0" t="s">
+      <c r="A113" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E113" s="0" t="s">
         <v>98</v>
@@ -44641,7 +44652,7 @@
         <v>20</v>
       </c>
       <c r="AC113" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AD113" s="0" t="s">
         <v>98</v>
@@ -44660,14 +44671,14 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="0" t="s">
+      <c r="A114" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E114" s="0" t="s">
         <v>99</v>
@@ -44742,7 +44753,7 @@
         <v>20</v>
       </c>
       <c r="AC114" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AD114" s="0" t="s">
         <v>99</v>
@@ -44761,14 +44772,14 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" s="0" t="s">
+      <c r="A115" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E115" s="0" t="s">
         <v>100</v>
@@ -44843,7 +44854,7 @@
         <v>20</v>
       </c>
       <c r="AC115" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AD115" s="0" t="s">
         <v>100</v>
@@ -44862,14 +44873,14 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="0" t="s">
+      <c r="A116" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E116" s="0" t="s">
         <v>101</v>
@@ -44944,7 +44955,7 @@
         <v>20</v>
       </c>
       <c r="AC116" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AD116" s="0" t="s">
         <v>101</v>
@@ -44963,14 +44974,14 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="0" t="s">
+      <c r="A117" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E117" s="0" t="s">
         <v>102</v>
@@ -45045,7 +45056,7 @@
         <v>20</v>
       </c>
       <c r="AC117" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AD117" s="0" t="s">
         <v>102</v>
@@ -45064,14 +45075,14 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" s="0" t="s">
+      <c r="A118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E118" s="0" t="s">
         <v>103</v>
@@ -45146,7 +45157,7 @@
         <v>20</v>
       </c>
       <c r="AC118" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AD118" s="0" t="s">
         <v>103</v>
@@ -45165,14 +45176,14 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" s="0" t="s">
+      <c r="A119" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>104</v>
@@ -45247,7 +45258,7 @@
         <v>20</v>
       </c>
       <c r="AC119" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AD119" s="0" t="s">
         <v>104</v>
@@ -45266,14 +45277,14 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B120" s="0" t="s">
+      <c r="A120" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E120" s="0" t="s">
         <v>105</v>
@@ -45348,7 +45359,7 @@
         <v>20</v>
       </c>
       <c r="AC120" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AD120" s="0" t="s">
         <v>105</v>
@@ -45367,14 +45378,14 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" s="0" t="s">
+      <c r="A121" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E121" s="0" t="s">
         <v>106</v>
@@ -45449,7 +45460,7 @@
         <v>20</v>
       </c>
       <c r="AC121" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AD121" s="0" t="s">
         <v>106</v>
@@ -45468,14 +45479,14 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="0" t="s">
+      <c r="A122" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E122" s="0" t="s">
         <v>107</v>
@@ -45550,7 +45561,7 @@
         <v>20</v>
       </c>
       <c r="AC122" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AD122" s="0" t="s">
         <v>107</v>
@@ -45569,14 +45580,14 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="0" t="s">
+      <c r="A123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E123" s="0" t="s">
         <v>108</v>
@@ -45651,7 +45662,7 @@
         <v>20</v>
       </c>
       <c r="AC123" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AD123" s="0" t="s">
         <v>108</v>
@@ -45670,14 +45681,14 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" s="0" t="s">
+      <c r="A124" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E124" s="0" t="s">
         <v>109</v>
@@ -45752,7 +45763,7 @@
         <v>20</v>
       </c>
       <c r="AC124" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AD124" s="0" t="s">
         <v>109</v>
@@ -45778,7 +45789,7 @@
         <v>12</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E125" s="0" t="s">
         <v>173</v>
@@ -45841,7 +45852,7 @@
         <v>20</v>
       </c>
       <c r="AC125" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AD125" s="0" t="s">
         <v>173</v>
@@ -45867,7 +45878,7 @@
         <v>12</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E126" s="0" t="s">
         <v>174</v>
@@ -45930,7 +45941,7 @@
         <v>20</v>
       </c>
       <c r="AC126" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AD126" s="0" t="s">
         <v>174</v>
@@ -45956,7 +45967,7 @@
         <v>12</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E127" s="0" t="s">
         <v>175</v>
@@ -46019,7 +46030,7 @@
         <v>20</v>
       </c>
       <c r="AC127" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AD127" s="0" t="s">
         <v>175</v>
@@ -46045,7 +46056,7 @@
         <v>12</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E128" s="0" t="s">
         <v>176</v>
@@ -46108,7 +46119,7 @@
         <v>20</v>
       </c>
       <c r="AC128" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AD128" s="0" t="s">
         <v>176</v>
@@ -46127,14 +46138,14 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="0" t="s">
+      <c r="A129" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>177</v>
@@ -46197,7 +46208,7 @@
         <v>20</v>
       </c>
       <c r="AC129" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AD129" s="0" t="s">
         <v>177</v>
@@ -46216,14 +46227,14 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="0" t="s">
+      <c r="A130" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E130" s="0" t="s">
         <v>178</v>
@@ -46286,7 +46297,7 @@
         <v>20</v>
       </c>
       <c r="AC130" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AD130" s="0" t="s">
         <v>178</v>
@@ -46305,14 +46316,14 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="0" t="s">
+      <c r="A131" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E131" s="0" t="s">
         <v>179</v>
@@ -46375,7 +46386,7 @@
         <v>20</v>
       </c>
       <c r="AC131" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AD131" s="0" t="s">
         <v>179</v>
@@ -46394,14 +46405,14 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" s="0" t="s">
+      <c r="A132" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E132" s="0" t="s">
         <v>180</v>
@@ -46464,7 +46475,7 @@
         <v>20</v>
       </c>
       <c r="AC132" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AD132" s="0" t="s">
         <v>180</v>
@@ -46483,14 +46494,14 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" s="0" t="s">
+      <c r="A133" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E133" s="0" t="s">
         <v>110</v>
@@ -46565,7 +46576,7 @@
         <v>20</v>
       </c>
       <c r="AC133" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AD133" s="0" t="s">
         <v>110</v>
@@ -46584,14 +46595,14 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E134" s="0" t="s">
         <v>111</v>
@@ -46666,7 +46677,7 @@
         <v>20</v>
       </c>
       <c r="AC134" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AD134" s="0" t="s">
         <v>111</v>
@@ -46685,14 +46696,14 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B135" s="0" t="s">
+      <c r="A135" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E135" s="0" t="s">
         <v>112</v>
@@ -46767,7 +46778,7 @@
         <v>20</v>
       </c>
       <c r="AC135" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AD135" s="0" t="s">
         <v>112</v>
@@ -46786,14 +46797,14 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E136" s="0" t="s">
         <v>172</v>
@@ -46862,7 +46873,7 @@
         <v>20</v>
       </c>
       <c r="AC136" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AD136" s="0" t="s">
         <v>172</v>
@@ -46881,14 +46892,14 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B137" s="0" t="s">
+      <c r="A137" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E137" s="0" t="s">
         <v>183</v>
@@ -46927,7 +46938,7 @@
         <v>20</v>
       </c>
       <c r="AC137" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AD137" s="0" t="s">
         <v>183</v>
@@ -46953,7 +46964,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E138" s="0" t="s">
         <v>113</v>
@@ -47028,7 +47039,7 @@
         <v>21</v>
       </c>
       <c r="AC138" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AD138" s="0" t="s">
         <v>113</v>
@@ -47054,7 +47065,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E139" s="0" t="s">
         <v>114</v>
@@ -47129,7 +47140,7 @@
         <v>21</v>
       </c>
       <c r="AC139" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AD139" s="0" t="s">
         <v>114</v>
@@ -47148,14 +47159,14 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="0" t="s">
+      <c r="A140" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E140" s="0" t="s">
         <v>193</v>
@@ -47188,7 +47199,7 @@
         <v>20</v>
       </c>
       <c r="AC140" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AD140" s="0" t="s">
         <v>193</v>
@@ -47207,14 +47218,14 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="0" t="s">
+      <c r="A141" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E141" s="0" t="s">
         <v>115</v>
@@ -47289,7 +47300,7 @@
         <v>20</v>
       </c>
       <c r="AC141" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AD141" s="0" t="s">
         <v>115</v>
@@ -47308,14 +47319,14 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B142" s="0" t="s">
+      <c r="A142" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E142" s="0" t="s">
         <v>116</v>
@@ -47390,7 +47401,7 @@
         <v>20</v>
       </c>
       <c r="AC142" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AD142" s="0" t="s">
         <v>116</v>
@@ -47409,14 +47420,14 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E143" s="0" t="s">
         <v>117</v>
@@ -47491,7 +47502,7 @@
         <v>20</v>
       </c>
       <c r="AC143" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AD143" s="0" t="s">
         <v>117</v>
@@ -47510,14 +47521,14 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B144" s="0" t="s">
+      <c r="A144" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E144" s="0" t="s">
         <v>118</v>
@@ -47592,7 +47603,7 @@
         <v>20</v>
       </c>
       <c r="AC144" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AD144" s="0" t="s">
         <v>118</v>
@@ -47618,7 +47629,7 @@
         <v>8</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E145" s="0" t="s">
         <v>119</v>
@@ -47693,7 +47704,7 @@
         <v>21</v>
       </c>
       <c r="AC145" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AD145" s="0" t="s">
         <v>119</v>
@@ -47719,7 +47730,7 @@
         <v>8</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E146" s="0" t="s">
         <v>120</v>
@@ -47794,7 +47805,7 @@
         <v>21</v>
       </c>
       <c r="AC146" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AD146" s="0" t="s">
         <v>120</v>
@@ -47813,14 +47824,14 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B147" s="0" t="s">
+      <c r="A147" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E147" s="0" t="s">
         <v>194</v>
@@ -47853,7 +47864,7 @@
         <v>20</v>
       </c>
       <c r="AC147" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AD147" s="0" t="s">
         <v>194</v>
@@ -47872,14 +47883,14 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" s="0" t="s">
+      <c r="A148" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E148" s="0" t="s">
         <v>216</v>
@@ -47900,7 +47911,7 @@
         <v>20</v>
       </c>
       <c r="AC148" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AD148" s="0" t="s">
         <v>216</v>
@@ -47919,14 +47930,14 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E149" s="0" t="s">
         <v>121</v>
@@ -48001,7 +48012,7 @@
         <v>20</v>
       </c>
       <c r="AC149" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AD149" s="0" t="s">
         <v>121</v>
@@ -48020,14 +48031,14 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E150" s="0" t="s">
         <v>122</v>
@@ -48102,7 +48113,7 @@
         <v>20</v>
       </c>
       <c r="AC150" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AD150" s="0" t="s">
         <v>122</v>
@@ -48121,14 +48132,14 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E151" s="0" t="s">
         <v>123</v>
@@ -48203,7 +48214,7 @@
         <v>20</v>
       </c>
       <c r="AC151" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AD151" s="0" t="s">
         <v>123</v>
@@ -48222,14 +48233,14 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E152" s="0" t="s">
         <v>124</v>
@@ -48304,7 +48315,7 @@
         <v>20</v>
       </c>
       <c r="AC152" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AD152" s="0" t="s">
         <v>124</v>
@@ -48323,14 +48334,14 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E153" s="0" t="s">
         <v>125</v>
@@ -48405,7 +48416,7 @@
         <v>20</v>
       </c>
       <c r="AC153" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AD153" s="0" t="s">
         <v>125</v>
@@ -48424,14 +48435,14 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E154" s="0" t="s">
         <v>126</v>
@@ -48506,7 +48517,7 @@
         <v>20</v>
       </c>
       <c r="AC154" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AD154" s="0" t="s">
         <v>126</v>
@@ -48525,14 +48536,14 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E155" s="0" t="s">
         <v>127</v>
@@ -48607,7 +48618,7 @@
         <v>20</v>
       </c>
       <c r="AC155" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AD155" s="0" t="s">
         <v>127</v>
@@ -48626,14 +48637,14 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E156" s="0" t="s">
         <v>128</v>
@@ -48708,7 +48719,7 @@
         <v>20</v>
       </c>
       <c r="AC156" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AD156" s="0" t="s">
         <v>128</v>
@@ -48727,14 +48738,14 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E157" s="0" t="s">
         <v>129</v>
@@ -48809,7 +48820,7 @@
         <v>20</v>
       </c>
       <c r="AC157" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AD157" s="0" t="s">
         <v>129</v>
@@ -48828,14 +48839,14 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E158" s="0" t="s">
         <v>130</v>
@@ -48910,7 +48921,7 @@
         <v>20</v>
       </c>
       <c r="AC158" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AD158" s="0" t="s">
         <v>130</v>
@@ -48929,14 +48940,14 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E159" s="0" t="s">
         <v>131</v>
@@ -49011,7 +49022,7 @@
         <v>20</v>
       </c>
       <c r="AC159" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AD159" s="0" t="s">
         <v>131</v>
@@ -49030,14 +49041,14 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E160" s="0" t="s">
         <v>132</v>
@@ -49112,7 +49123,7 @@
         <v>20</v>
       </c>
       <c r="AC160" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AD160" s="0" t="s">
         <v>132</v>
@@ -49131,14 +49142,14 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E161" s="0" t="s">
         <v>133</v>
@@ -49213,7 +49224,7 @@
         <v>20</v>
       </c>
       <c r="AC161" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AD161" s="0" t="s">
         <v>133</v>
@@ -49232,14 +49243,14 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E162" s="0" t="s">
         <v>134</v>
@@ -49314,7 +49325,7 @@
         <v>20</v>
       </c>
       <c r="AC162" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AD162" s="0" t="s">
         <v>134</v>
@@ -49333,14 +49344,14 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E163" s="0" t="s">
         <v>135</v>
@@ -49415,7 +49426,7 @@
         <v>20</v>
       </c>
       <c r="AC163" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AD163" s="0" t="s">
         <v>135</v>
@@ -49434,14 +49445,14 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E164" s="0" t="s">
         <v>136</v>
@@ -49516,7 +49527,7 @@
         <v>20</v>
       </c>
       <c r="AC164" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AD164" s="0" t="s">
         <v>136</v>
@@ -49535,14 +49546,14 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E165" s="0" t="s">
         <v>137</v>
@@ -49617,7 +49628,7 @@
         <v>20</v>
       </c>
       <c r="AC165" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AD165" s="0" t="s">
         <v>137</v>
@@ -49636,14 +49647,14 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B166" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E166" s="0" t="s">
         <v>138</v>
@@ -49718,7 +49729,7 @@
         <v>20</v>
       </c>
       <c r="AC166" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AD166" s="0" t="s">
         <v>138</v>
@@ -49737,14 +49748,14 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E167" s="0" t="s">
         <v>139</v>
@@ -49819,7 +49830,7 @@
         <v>20</v>
       </c>
       <c r="AC167" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AD167" s="0" t="s">
         <v>139</v>
@@ -49838,14 +49849,14 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E168" s="0" t="s">
         <v>140</v>
@@ -49920,7 +49931,7 @@
         <v>20</v>
       </c>
       <c r="AC168" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AD168" s="0" t="s">
         <v>140</v>
@@ -49939,14 +49950,14 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E169" s="0" t="s">
         <v>141</v>
@@ -50021,7 +50032,7 @@
         <v>20</v>
       </c>
       <c r="AC169" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AD169" s="0" t="s">
         <v>141</v>
@@ -50040,14 +50051,14 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E170" s="0" t="s">
         <v>142</v>
@@ -50122,7 +50133,7 @@
         <v>20</v>
       </c>
       <c r="AC170" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AD170" s="0" t="s">
         <v>142</v>
@@ -50141,14 +50152,14 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B171" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E171" s="0" t="s">
         <v>143</v>
@@ -50223,7 +50234,7 @@
         <v>20</v>
       </c>
       <c r="AC171" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AD171" s="0" t="s">
         <v>143</v>
@@ -50242,14 +50253,14 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E172" s="0" t="s">
         <v>144</v>
@@ -50324,7 +50335,7 @@
         <v>20</v>
       </c>
       <c r="AC172" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AD172" s="0" t="s">
         <v>144</v>
@@ -50343,14 +50354,14 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B173" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E173" s="0" t="s">
         <v>145</v>
@@ -50425,7 +50436,7 @@
         <v>20</v>
       </c>
       <c r="AC173" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AD173" s="0" t="s">
         <v>145</v>
@@ -50444,14 +50455,14 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B174" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E174" s="0" t="s">
         <v>146</v>
@@ -50526,7 +50537,7 @@
         <v>20</v>
       </c>
       <c r="AC174" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AD174" s="0" t="s">
         <v>146</v>
@@ -50545,14 +50556,14 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B175" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E175" s="0" t="s">
         <v>147</v>
@@ -50627,7 +50638,7 @@
         <v>20</v>
       </c>
       <c r="AC175" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AD175" s="0" t="s">
         <v>147</v>
@@ -50646,14 +50657,14 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E176" s="0" t="s">
         <v>148</v>
@@ -50728,7 +50739,7 @@
         <v>20</v>
       </c>
       <c r="AC176" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AD176" s="0" t="s">
         <v>148</v>
@@ -50747,14 +50758,14 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E177" s="0" t="s">
         <v>149</v>
@@ -50829,7 +50840,7 @@
         <v>20</v>
       </c>
       <c r="AC177" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AD177" s="0" t="s">
         <v>149</v>
@@ -50855,7 +50866,7 @@
         <v>8</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E178" s="0" t="s">
         <v>150</v>
@@ -50930,7 +50941,7 @@
         <v>21</v>
       </c>
       <c r="AC178" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AD178" s="0" t="s">
         <v>150</v>
@@ -50956,7 +50967,7 @@
         <v>15</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E179" s="0" t="s">
         <v>151</v>
@@ -51039,7 +51050,7 @@
         <v>15</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E180" s="0" t="s">
         <v>152</v>
@@ -51115,14 +51126,14 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B181" s="0" t="s">
+      <c r="A181" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E181" s="0" t="s">
         <v>153</v>
@@ -51205,7 +51216,7 @@
         <v>9</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E182" s="0" t="s">
         <v>154</v>
@@ -51281,14 +51292,14 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B183" s="0" t="s">
+      <c r="A183" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E183" s="0" t="s">
         <v>181</v>
@@ -51359,7 +51370,7 @@
         <v>16</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E184" s="0" t="s">
         <v>155</v>
@@ -51442,7 +51453,7 @@
         <v>12</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E185" s="0" t="s">
         <v>156</v>
@@ -51518,14 +51529,14 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="A186" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B186" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E186" s="0" t="s">
         <v>157</v>
@@ -51608,7 +51619,7 @@
         <v>18</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E187" s="0" t="s">
         <v>158</v>
@@ -51683,7 +51694,7 @@
         <v>22</v>
       </c>
       <c r="AC187" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AD187" s="0" t="s">
         <v>158</v>
@@ -51709,7 +51720,7 @@
         <v>17</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E188" s="0" t="s">
         <v>184</v>
@@ -51725,14 +51736,14 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B189" s="0" t="s">
+      <c r="A189" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E189" s="0" t="s">
         <v>159</v>
@@ -51807,7 +51818,7 @@
         <v>20</v>
       </c>
       <c r="AC189" s="0" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AD189" s="0" t="s">
         <v>159</v>
@@ -51826,14 +51837,14 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B190" s="0" t="s">
+      <c r="A190" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E190" s="0" t="s">
         <v>160</v>
@@ -51909,14 +51920,14 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B191" s="0" t="s">
+      <c r="A191" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E191" s="0" t="s">
         <v>161</v>
@@ -51991,7 +52002,7 @@
         <v>20</v>
       </c>
       <c r="AC191" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AD191" s="0" t="s">
         <v>161</v>
@@ -52010,14 +52021,14 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B192" s="0" t="s">
+      <c r="A192" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E192" s="0" t="s">
         <v>217</v>
@@ -52026,7 +52037,7 @@
         <v>20</v>
       </c>
       <c r="AC192" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AD192" s="0" t="s">
         <v>217</v>
@@ -52052,7 +52063,7 @@
         <v>8</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E193" s="0" t="s">
         <v>162</v>
@@ -52127,7 +52138,7 @@
         <v>21</v>
       </c>
       <c r="AC193" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AD193" s="0" t="s">
         <v>162</v>
@@ -52146,14 +52157,14 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B194" s="0" t="s">
+      <c r="A194" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B194" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E194" s="0" t="s">
         <v>163</v>
@@ -52229,14 +52240,14 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="A195" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E195" s="0" t="s">
         <v>164</v>
@@ -52319,7 +52330,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E196" s="0" t="s">
         <v>165</v>
@@ -52394,7 +52405,7 @@
         <v>21</v>
       </c>
       <c r="AC196" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AD196" s="0" t="s">
         <v>165</v>
@@ -52420,7 +52431,7 @@
         <v>8</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E197" s="0" t="s">
         <v>166</v>
@@ -52495,7 +52506,7 @@
         <v>21</v>
       </c>
       <c r="AC197" s="0" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AD197" s="0" t="s">
         <v>166</v>
@@ -52521,7 +52532,7 @@
         <v>8</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E198" s="0" t="s">
         <v>167</v>
@@ -52596,7 +52607,7 @@
         <v>21</v>
       </c>
       <c r="AC198" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AD198" s="0" t="s">
         <v>167</v>
@@ -52622,7 +52633,7 @@
         <v>8</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E199" s="0" t="s">
         <v>168</v>
@@ -52697,7 +52708,7 @@
         <v>21</v>
       </c>
       <c r="AC199" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AD199" s="0" t="s">
         <v>168</v>
@@ -52723,7 +52734,7 @@
         <v>8</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E200" s="0" t="s">
         <v>169</v>
@@ -52798,7 +52809,7 @@
         <v>21</v>
       </c>
       <c r="AC200" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AD200" s="0" t="s">
         <v>169</v>
@@ -52817,14 +52828,14 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B201" s="0" t="s">
+      <c r="A201" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E201" s="0" t="s">
         <v>185</v>
@@ -52864,14 +52875,14 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="A202" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E202" s="0" t="s">
         <v>186</v>
@@ -52911,14 +52922,14 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="A203" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E203" s="0" t="s">
         <v>187</v>
@@ -52958,14 +52969,14 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="A204" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="B204" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E204" s="0" t="s">
         <v>188</v>
@@ -53005,14 +53016,14 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B205" s="0" t="s">
+      <c r="A205" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E205" s="0" t="s">
         <v>189</v>
@@ -53052,14 +53063,14 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="A206" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E206" s="0" t="s">
         <v>190</v>
@@ -53099,14 +53110,14 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B207" s="0" t="s">
+      <c r="A207" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E207" s="0" t="s">
         <v>191</v>
@@ -53146,14 +53157,14 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B208" s="0" t="s">
+      <c r="A208" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E208" s="0" t="s">
         <v>195</v>
@@ -53186,7 +53197,7 @@
         <v>20</v>
       </c>
       <c r="AC208" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AD208" s="0" t="s">
         <v>195</v>
@@ -53205,14 +53216,14 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="A209" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E209" s="0" t="s">
         <v>170</v>
@@ -53287,7 +53298,7 @@
         <v>20</v>
       </c>
       <c r="AC209" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AD209" s="0" t="s">
         <v>170</v>
@@ -53300,14 +53311,14 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="A210" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B210" s="0" t="s">
+      <c r="B210" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E210" s="0" t="s">
         <v>171</v>
@@ -53382,7 +53393,7 @@
         <v>20</v>
       </c>
       <c r="AC210" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AD210" s="0" t="s">
         <v>171</v>
@@ -53401,14 +53412,14 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="A211" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="B211" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E211" s="0" t="s">
         <v>232</v>
@@ -53421,14 +53432,14 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B212" s="0" t="s">
+      <c r="A212" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B212" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E212" s="0" t="s">
         <v>233</v>
@@ -53441,14 +53452,14 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B213" s="0" t="s">
+      <c r="A213" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B213" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E213" s="0" t="s">
         <v>234</v>
@@ -53461,14 +53472,14 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B214" s="0" t="s">
+      <c r="A214" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B214" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E214" s="0" t="s">
         <v>235</v>
@@ -53481,14 +53492,14 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B215" s="0" t="s">
+      <c r="A215" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B215" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E215" s="0" t="s">
         <v>236</v>
@@ -53501,14 +53512,14 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B216" s="0" t="s">
+      <c r="A216" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E216" s="0" t="s">
         <v>237</v>
@@ -53521,14 +53532,14 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B217" s="0" t="s">
+      <c r="A217" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E217" s="0" t="s">
         <v>238</v>
@@ -53543,7 +53554,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -53564,8 +53575,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63111,7 +63122,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -63126,15 +63137,15 @@
   </sheetPr>
   <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63151,7 +63162,7 @@
         <v>2001</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -65980,7 +65991,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -66001,10 +66012,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -66021,7 +66032,7 @@
         <v>2002</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68853,7 +68864,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -68874,9 +68885,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68893,7 +68904,7 @@
         <v>2003</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -71749,7 +71760,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -71770,9 +71781,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -71789,7 +71800,7 @@
         <v>2004</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74648,7 +74659,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -74669,9 +74680,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74688,7 +74699,7 @@
         <v>2005</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -77547,7 +77558,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -77568,9 +77579,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -77587,7 +77598,7 @@
         <v>2006</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -80446,7 +80457,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
